--- a/config_6.22/fish_use_config.xlsx
+++ b/config_6.22/fish_use_config.xlsx
@@ -71,12 +71,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,14 +94,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -112,16 +105,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,16 +120,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,22 +137,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,18 +158,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,13 +182,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -236,7 +207,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,7 +251,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,30 +278,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -328,7 +290,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,127 +302,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,6 +315,144 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,6 +482,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -512,6 +516,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,21 +549,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,33 +570,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -601,176 +581,176 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="49" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="49" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="49" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3589,7 +3569,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C200" sqref="C200"/>
+      <selection pane="bottomLeft" activeCell="D201" sqref="D201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -6335,7 +6315,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="5">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="201" spans="1:1">
